--- a/dev/licenses.xlsx
+++ b/dev/licenses.xlsx
@@ -13,8 +13,10 @@
     <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
     <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$AS$51</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1503,7 +1505,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1705,6 +1707,21 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2308,46 +2325,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AS51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS51" sqref="A1:AS51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9" bestFit="1" customWidth="1"/>
-    <col min="37" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="45" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
@@ -2376,140 +2366,140 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="N7" s="70" t="s">
+      <c r="N7" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="O7" s="70" t="s">
+      <c r="O7" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="70" t="s">
+      <c r="P7" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="Q7" s="70" t="s">
+      <c r="Q7" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="R7" s="70" t="s">
+      <c r="R7" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="S7" s="70" t="s">
+      <c r="S7" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="T7" s="70" t="s">
+      <c r="T7" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="U7" s="70" t="s">
+      <c r="U7" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="V7" s="70" t="s">
+      <c r="V7" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="W7" s="67" t="s">
+      <c r="W7" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="X7" s="67" t="s">
+      <c r="X7" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="Y7" s="67" t="s">
+      <c r="Y7" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="67" t="s">
+      <c r="Z7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="67" t="s">
+      <c r="AA7" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="67" t="s">
+      <c r="AB7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="AC7" s="67" t="s">
+      <c r="AC7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="67" t="s">
+      <c r="AD7" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="AE7" s="68" t="s">
+      <c r="AE7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AF7" s="68" t="s">
+      <c r="AF7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="68" t="s">
+      <c r="AG7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AH7" s="68" t="s">
+      <c r="AH7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AI7" s="68" t="s">
+      <c r="AI7" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="AJ7" s="68" t="s">
+      <c r="AJ7" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="AK7" s="68" t="s">
+      <c r="AK7" s="76" t="s">
         <v>266</v>
       </c>
-      <c r="AL7" s="68" t="s">
+      <c r="AL7" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="AM7" s="68" t="s">
+      <c r="AM7" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="AN7" s="68" t="s">
+      <c r="AN7" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="AO7" s="68" t="s">
+      <c r="AO7" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="AP7" s="68" t="s">
+      <c r="AP7" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="AQ7" s="68" t="s">
+      <c r="AQ7" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="AR7" s="69" t="s">
+      <c r="AR7" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="AS7" s="69" t="s">
+      <c r="AS7" s="77" t="s">
         <v>237</v>
       </c>
     </row>
@@ -8562,7 +8552,8 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <webPublishItems count="1">
     <webPublishItem id="7963" divId="Licenses_7963" sourceType="range" sourceRef="A1:AS51" destinationFile="C:\Users\OB\Desktop\Licenses.htm"/>
   </webPublishItems>
@@ -10958,34 +10949,34 @@
       <c r="A30" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="83" t="s">
+      <c r="C30" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="75" t="s">
+      <c r="G30" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="H30" s="73" t="s">
+      <c r="H30" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="I30" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="75" t="s">
+      <c r="I30" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="77" t="s">
+      <c r="K30" s="82" t="s">
         <v>85</v>
       </c>
     </row>
@@ -10993,16 +10984,16 @@
       <c r="A31" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="78"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="83"/>
     </row>
     <row r="32" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
